--- a/SourceCode/AOG/PGN 9.xlsx
+++ b/SourceCode/AOG/PGN 9.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="233">
   <si>
     <t xml:space="preserve">PGN Name</t>
   </si>
@@ -490,19 +490,16 @@
     <t xml:space="preserve">E9</t>
   </si>
   <si>
-    <t xml:space="preserve">Low XTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High XTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low Veh XTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High Veh XTE</t>
+    <t xml:space="preserve">Tool XTE (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle XTE (mm)</t>
   </si>
   <si>
     <t xml:space="preserve">Speed * 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle Heading Deg * 10</t>
   </si>
   <si>
     <t xml:space="preserve">IP = 192.168.5.226</t>
@@ -1044,7 +1041,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1306,10 +1303,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1609,7 +1602,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K39" activeCellId="0" sqref="K39"/>
+      <selection pane="bottomLeft" activeCell="R60" activeCellId="0" sqref="R60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3274,27 +3267,21 @@
       <c r="I58" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="J58" s="23" t="s">
-        <v>156</v>
-      </c>
+      <c r="J58" s="62"/>
       <c r="K58" s="23" t="s">
         <v>20</v>
       </c>
       <c r="L58" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="M58" s="23" t="s">
+      <c r="O58" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="N58" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="O58" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="P58" s="23" t="s">
-        <v>57</v>
-      </c>
+      <c r="P58" s="23"/>
       <c r="Q58" s="23" t="s">
         <v>25</v>
       </c>
@@ -3328,16 +3315,16 @@
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G60" s="7" t="n">
         <v>232</v>
@@ -3346,10 +3333,10 @@
         <v>8</v>
       </c>
       <c r="I60" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J60" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="J60" s="10" t="s">
-        <v>164</v>
       </c>
       <c r="K60" s="10" t="s">
         <v>32</v>
@@ -3358,16 +3345,16 @@
         <v>30</v>
       </c>
       <c r="M60" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="N60" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="N60" s="66" t="s">
+      <c r="O60" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="O60" s="10" t="s">
+      <c r="P60" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="P60" s="10" t="s">
-        <v>168</v>
       </c>
       <c r="Q60" s="10" t="s">
         <v>25</v>
@@ -3376,7 +3363,7 @@
     <row r="61" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1"/>
       <c r="B61" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="4"/>
@@ -3422,17 +3409,17 @@
     <row r="62" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1"/>
       <c r="B62" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G62" s="7" t="n">
         <v>231</v>
@@ -3441,16 +3428,16 @@
         <v>8</v>
       </c>
       <c r="I62" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="J62" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="J62" s="10" t="s">
+      <c r="K62" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="K62" s="10" t="s">
+      <c r="L62" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="L62" s="10" t="s">
-        <v>176</v>
       </c>
       <c r="M62" s="10" t="s">
         <v>57</v>
@@ -3496,7 +3483,7 @@
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="54"/>
       <c r="B63" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J63" s="1"/>
       <c r="L63" s="1"/>
@@ -3530,16 +3517,16 @@
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="E64" s="5" t="n">
         <v>122</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G64" s="7" t="n">
         <v>230</v>
@@ -3548,19 +3535,19 @@
         <v>8</v>
       </c>
       <c r="I64" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="J64" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="J64" s="8" t="s">
+      <c r="K64" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="K64" s="8" t="s">
+      <c r="L64" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="L64" s="8" t="s">
+      <c r="M64" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="M64" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="N64" s="8" t="s">
         <v>20</v>
@@ -3646,7 +3633,7 @@
     </row>
     <row r="66" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="55"/>
-      <c r="B66" s="67"/>
+      <c r="B66" s="66"/>
       <c r="C66" s="57"/>
       <c r="D66" s="58"/>
       <c r="E66" s="59"/>
@@ -3692,7 +3679,7 @@
       <c r="A67" s="54"/>
       <c r="B67" s="25"/>
       <c r="C67" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D67" s="4" t="n">
         <v>77</v>
@@ -3701,35 +3688,35 @@
         <v>119</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G67" s="7" t="n">
         <v>234</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="J67" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="J67" s="8" t="s">
+      <c r="K67" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="L67" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="K67" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="L67" s="8" t="s">
+      <c r="M67" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="M67" s="8" t="s">
+      <c r="N67" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="N67" s="8" t="s">
+      <c r="O67" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="O67" s="8" t="s">
+      <c r="P67" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="P67" s="8" t="s">
-        <v>194</v>
       </c>
       <c r="Q67" s="8" t="s">
         <v>25</v>
@@ -3888,10 +3875,10 @@
     </row>
     <row r="71" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>17</v>
@@ -3905,7 +3892,7 @@
         <v>3</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J71" s="8" t="n">
         <v>0</v>
@@ -3946,7 +3933,7 @@
       <c r="AN71" s="8"/>
     </row>
     <row r="72" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B72" s="68"/>
+      <c r="B72" s="67"/>
       <c r="C72" s="3"/>
       <c r="D72" s="4"/>
       <c r="E72" s="5"/>
@@ -3988,10 +3975,10 @@
     </row>
     <row r="73" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="D73" s="4" t="n">
         <v>126</v>
@@ -4005,19 +3992,19 @@
         <v>5</v>
       </c>
       <c r="I73" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="J73" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="J73" s="8" t="s">
+      <c r="K73" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="K73" s="8" t="s">
+      <c r="L73" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="L73" s="8" t="s">
+      <c r="M73" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="M73" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="N73" s="8" t="s">
         <v>25</v>
@@ -4050,9 +4037,9 @@
       <c r="AN73" s="8"/>
     </row>
     <row r="74" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B74" s="68"/>
+      <c r="B74" s="67"/>
       <c r="C74" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D74" s="4" t="n">
         <v>123</v>
@@ -4066,10 +4053,10 @@
         <v>5</v>
       </c>
       <c r="I74" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="J74" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="J74" s="8" t="s">
-        <v>207</v>
       </c>
       <c r="K74" s="8" t="s">
         <v>57</v>
@@ -4111,9 +4098,9 @@
       <c r="AN74" s="8"/>
     </row>
     <row r="75" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="68"/>
+      <c r="B75" s="67"/>
       <c r="C75" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D75" s="4" t="n">
         <v>121</v>
@@ -4172,9 +4159,9 @@
       <c r="AN75" s="8"/>
     </row>
     <row r="76" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B76" s="68"/>
+      <c r="B76" s="67"/>
       <c r="C76" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D76" s="4" t="n">
         <v>120</v>
@@ -4275,10 +4262,10 @@
     </row>
     <row r="78" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>17</v>
@@ -4298,13 +4285,13 @@
         <v>201</v>
       </c>
       <c r="K78" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="L78" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="L78" s="8" t="s">
+      <c r="M78" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="M78" s="8" t="s">
-        <v>214</v>
       </c>
       <c r="N78" s="8" t="s">
         <v>25</v>
@@ -4379,10 +4366,10 @@
     </row>
     <row r="80" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="C80" s="69" t="s">
-        <v>215</v>
+        <v>209</v>
+      </c>
+      <c r="C80" s="68" t="s">
+        <v>214</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>17</v>
@@ -4438,7 +4425,7 @@
     </row>
     <row r="81" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="25"/>
-      <c r="C81" s="69"/>
+      <c r="C81" s="68"/>
       <c r="D81" s="4"/>
       <c r="E81" s="5"/>
       <c r="F81" s="6"/>
@@ -4479,12 +4466,12 @@
     </row>
     <row r="82" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D82" s="70" t="n">
+      <c r="D82" s="69" t="n">
         <v>126</v>
       </c>
       <c r="E82" s="5"/>
@@ -4496,25 +4483,25 @@
         <v>7</v>
       </c>
       <c r="I82" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="J82" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="J82" s="8" t="s">
+      <c r="K82" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="K82" s="8" t="s">
-        <v>220</v>
       </c>
       <c r="L82" s="8" t="n">
         <v>126</v>
       </c>
       <c r="M82" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="N82" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="N82" s="8" t="s">
+      <c r="O82" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="O82" s="8" t="s">
-        <v>223</v>
       </c>
       <c r="P82" s="8" t="s">
         <v>25</v>
@@ -4547,9 +4534,9 @@
     <row r="83" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="25"/>
       <c r="C83" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D83" s="70" t="n">
+        <v>223</v>
+      </c>
+      <c r="D83" s="69" t="n">
         <v>123</v>
       </c>
       <c r="E83" s="5"/>
@@ -4561,25 +4548,25 @@
         <v>7</v>
       </c>
       <c r="I83" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="J83" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="J83" s="8" t="s">
+      <c r="K83" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="K83" s="8" t="s">
-        <v>220</v>
       </c>
       <c r="L83" s="8" t="n">
         <v>123</v>
       </c>
       <c r="M83" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="N83" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="N83" s="8" t="s">
+      <c r="O83" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="O83" s="8" t="s">
-        <v>223</v>
       </c>
       <c r="P83" s="8" t="s">
         <v>25</v>
@@ -4612,9 +4599,9 @@
     <row r="84" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="25"/>
       <c r="C84" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D84" s="70" t="n">
+        <v>224</v>
+      </c>
+      <c r="D84" s="69" t="n">
         <v>121</v>
       </c>
       <c r="E84" s="5"/>
@@ -4626,25 +4613,25 @@
         <v>7</v>
       </c>
       <c r="I84" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="J84" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="J84" s="8" t="s">
+      <c r="K84" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="K84" s="8" t="s">
-        <v>220</v>
       </c>
       <c r="L84" s="8" t="n">
         <v>121</v>
       </c>
       <c r="M84" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="N84" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="N84" s="8" t="s">
+      <c r="O84" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="O84" s="8" t="s">
-        <v>223</v>
       </c>
       <c r="P84" s="8" t="s">
         <v>25</v>
@@ -4678,9 +4665,9 @@
       <c r="A85" s="54"/>
       <c r="B85" s="25"/>
       <c r="C85" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D85" s="70" t="n">
+        <v>225</v>
+      </c>
+      <c r="D85" s="69" t="n">
         <v>120</v>
       </c>
       <c r="G85" s="7" t="n">
@@ -4690,25 +4677,25 @@
         <v>7</v>
       </c>
       <c r="I85" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="J85" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="J85" s="8" t="s">
+      <c r="K85" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="K85" s="8" t="s">
-        <v>220</v>
       </c>
       <c r="L85" s="8" t="n">
         <v>120</v>
       </c>
       <c r="M85" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="N85" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="N85" s="8" t="s">
+      <c r="O85" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="O85" s="8" t="s">
-        <v>223</v>
       </c>
       <c r="P85" s="8" t="s">
         <v>25</v>
@@ -4743,7 +4730,7 @@
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="54"/>
       <c r="B86" s="25"/>
-      <c r="D86" s="70"/>
+      <c r="D86" s="69"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
@@ -4780,24 +4767,24 @@
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C88" s="71" t="s">
+      <c r="C88" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="D88" s="71" t="s">
         <v>227</v>
       </c>
-      <c r="D88" s="72" t="s">
+      <c r="E88" s="72"/>
+      <c r="F88" s="73" t="s">
         <v>228</v>
       </c>
-      <c r="E88" s="73"/>
-      <c r="F88" s="74" t="s">
+      <c r="G88" s="51"/>
+    </row>
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="75" t="s">
         <v>229</v>
-      </c>
-      <c r="G88" s="51"/>
-    </row>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" s="76" t="s">
-        <v>230</v>
       </c>
       <c r="D89" s="4" t="n">
         <v>254</v>
@@ -4813,15 +4800,15 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="75"/>
-      <c r="C90" s="76"/>
+      <c r="B90" s="74"/>
+      <c r="C90" s="75"/>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="75" t="s">
+      <c r="B91" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="C91" s="76" t="s">
-        <v>231</v>
+      <c r="C91" s="75" t="s">
+        <v>230</v>
       </c>
       <c r="D91" s="4" t="n">
         <v>239</v>
@@ -4837,15 +4824,15 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="75"/>
-      <c r="C92" s="76"/>
+      <c r="B92" s="74"/>
+      <c r="C92" s="75"/>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="75" t="s">
+      <c r="B93" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="C93" s="76" t="s">
-        <v>232</v>
+      <c r="C93" s="75" t="s">
+        <v>231</v>
       </c>
       <c r="F93" s="6" t="n">
         <v>211</v>
@@ -4855,22 +4842,22 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="75"/>
-      <c r="C94" s="76"/>
+      <c r="B94" s="74"/>
+      <c r="C94" s="75"/>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="75" t="s">
+      <c r="B95" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C95" s="76" t="s">
-        <v>233</v>
+      <c r="C95" s="75" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N5:O5"/>
@@ -4880,6 +4867,9 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="M30:N30"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="O58:P58"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511811023622047" footer="0.511811023622047"/>

--- a/SourceCode/AOG/PGN 9.xlsx
+++ b/SourceCode/AOG/PGN 9.xlsx
@@ -11,7 +11,7 @@
     <sheet name="PGN" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">PGN!$A$1:$Q$96</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">PGN!$A$1:$Q$102</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="232">
   <si>
     <t xml:space="preserve">PGN Name</t>
   </si>
@@ -571,10 +571,7 @@
     <t xml:space="preserve">High Actual </t>
   </si>
   <si>
-    <t xml:space="preserve">Low Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High Error</t>
+    <t xml:space="preserve">SwitchByte</t>
   </si>
   <si>
     <t xml:space="preserve">Tool PWM</t>
@@ -733,7 +730,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -805,6 +802,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1041,7 +1044,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1306,6 +1309,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1326,15 +1333,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1597,12 +1604,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AP1048576"/>
+  <dimension ref="A1:AP101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="R60" activeCellId="0" sqref="R60"/>
+      <selection pane="bottomLeft" activeCell="K64" activeCellId="0" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3541,22 +3548,22 @@
         <v>181</v>
       </c>
       <c r="K64" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M64" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N64" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O64" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="L64" s="8" t="s">
+      <c r="P64" s="66" t="s">
         <v>183</v>
-      </c>
-      <c r="M64" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="N64" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O64" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="P64" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="Q64" s="10" t="s">
         <v>25</v>
@@ -3633,7 +3640,7 @@
     </row>
     <row r="66" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="55"/>
-      <c r="B66" s="66"/>
+      <c r="B66" s="67"/>
       <c r="C66" s="57"/>
       <c r="D66" s="58"/>
       <c r="E66" s="59"/>
@@ -3679,7 +3686,7 @@
       <c r="A67" s="54"/>
       <c r="B67" s="25"/>
       <c r="C67" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D67" s="4" t="n">
         <v>77</v>
@@ -3688,35 +3695,35 @@
         <v>119</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G67" s="7" t="n">
         <v>234</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="J67" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="J67" s="8" t="s">
+      <c r="K67" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="L67" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="K67" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="L67" s="8" t="s">
+      <c r="M67" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="M67" s="8" t="s">
+      <c r="N67" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="N67" s="8" t="s">
+      <c r="O67" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="O67" s="8" t="s">
+      <c r="P67" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="P67" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="Q67" s="8" t="s">
         <v>25</v>
@@ -3747,92 +3754,93 @@
       <c r="AO67" s="54"/>
       <c r="AP67" s="54"/>
     </row>
-    <row r="68" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B68" s="25"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="8"/>
-      <c r="S68" s="8"/>
-      <c r="T68" s="8"/>
-      <c r="U68" s="8"/>
-      <c r="V68" s="8"/>
-      <c r="W68" s="8"/>
-      <c r="X68" s="8"/>
-      <c r="Y68" s="8"/>
-      <c r="Z68" s="8"/>
-      <c r="AA68" s="8"/>
-      <c r="AB68" s="8"/>
-      <c r="AC68" s="8"/>
-      <c r="AD68" s="8"/>
-      <c r="AE68" s="8"/>
-      <c r="AF68" s="8"/>
-      <c r="AG68" s="8"/>
-      <c r="AH68" s="8"/>
-      <c r="AI68" s="8"/>
-      <c r="AJ68" s="8"/>
-      <c r="AK68" s="8"/>
-      <c r="AL68" s="8"/>
-      <c r="AM68" s="8"/>
-      <c r="AN68" s="8"/>
-    </row>
-    <row r="69" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="46"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="52"/>
-      <c r="K69" s="52"/>
-      <c r="L69" s="52"/>
-      <c r="M69" s="52"/>
-      <c r="N69" s="52"/>
-      <c r="O69" s="52"/>
-      <c r="P69" s="52"/>
-      <c r="Q69" s="52"/>
-      <c r="R69" s="52"/>
-      <c r="S69" s="52"/>
-      <c r="T69" s="52"/>
-      <c r="U69" s="52"/>
-      <c r="V69" s="52"/>
-      <c r="W69" s="52"/>
-      <c r="X69" s="52"/>
-      <c r="Y69" s="52"/>
-      <c r="Z69" s="52"/>
-      <c r="AA69" s="52"/>
-      <c r="AB69" s="52"/>
-      <c r="AC69" s="52"/>
-      <c r="AD69" s="52"/>
-      <c r="AE69" s="52"/>
-      <c r="AF69" s="52"/>
-      <c r="AG69" s="52"/>
-      <c r="AH69" s="52"/>
-      <c r="AI69" s="52"/>
-      <c r="AJ69" s="52"/>
-      <c r="AK69" s="52"/>
-      <c r="AL69" s="52"/>
-      <c r="AM69" s="52"/>
-      <c r="AN69" s="52"/>
-      <c r="AO69" s="46"/>
-      <c r="AP69" s="46"/>
-    </row>
-    <row r="70" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B68" s="12"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="52"/>
+      <c r="K68" s="52"/>
+      <c r="L68" s="52"/>
+      <c r="M68" s="52"/>
+      <c r="N68" s="52"/>
+      <c r="O68" s="52"/>
+      <c r="P68" s="52"/>
+      <c r="Q68" s="52"/>
+      <c r="R68" s="52"/>
+      <c r="S68" s="52"/>
+      <c r="T68" s="52"/>
+      <c r="U68" s="52"/>
+      <c r="V68" s="52"/>
+      <c r="W68" s="52"/>
+      <c r="X68" s="52"/>
+      <c r="Y68" s="52"/>
+      <c r="Z68" s="52"/>
+      <c r="AA68" s="52"/>
+      <c r="AB68" s="52"/>
+      <c r="AC68" s="52"/>
+      <c r="AD68" s="52"/>
+      <c r="AE68" s="52"/>
+      <c r="AF68" s="52"/>
+      <c r="AG68" s="52"/>
+      <c r="AH68" s="52"/>
+      <c r="AI68" s="52"/>
+      <c r="AJ68" s="52"/>
+      <c r="AK68" s="52"/>
+      <c r="AL68" s="52"/>
+      <c r="AM68" s="52"/>
+      <c r="AN68" s="52"/>
+    </row>
+    <row r="69" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="54"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="8"/>
+      <c r="W69" s="8"/>
+      <c r="X69" s="8"/>
+      <c r="Y69" s="8"/>
+      <c r="Z69" s="8"/>
+      <c r="AA69" s="8"/>
+      <c r="AB69" s="8"/>
+      <c r="AC69" s="8"/>
+      <c r="AD69" s="8"/>
+      <c r="AE69" s="8"/>
+      <c r="AF69" s="8"/>
+      <c r="AG69" s="8"/>
+      <c r="AH69" s="8"/>
+      <c r="AI69" s="8"/>
+      <c r="AJ69" s="8"/>
+      <c r="AK69" s="8"/>
+      <c r="AL69" s="8"/>
+      <c r="AM69" s="8"/>
+      <c r="AN69" s="8"/>
+      <c r="AO69" s="54"/>
+      <c r="AP69" s="54"/>
+    </row>
+    <row r="70" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="54"/>
       <c r="B70" s="25"/>
       <c r="C70" s="3"/>
       <c r="D70" s="4"/>
@@ -3872,37 +3880,22 @@
       <c r="AL70" s="8"/>
       <c r="AM70" s="8"/>
       <c r="AN70" s="8"/>
-    </row>
-    <row r="71" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B71" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="AO70" s="54"/>
+      <c r="AP70" s="54"/>
+    </row>
+    <row r="71" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="54"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="4"/>
       <c r="E71" s="5"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="7" t="n">
-        <v>200</v>
-      </c>
-      <c r="H71" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I71" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="J71" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
       <c r="O71" s="8"/>
@@ -3931,9 +3924,12 @@
       <c r="AL71" s="8"/>
       <c r="AM71" s="8"/>
       <c r="AN71" s="8"/>
-    </row>
-    <row r="72" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B72" s="67"/>
+      <c r="AO71" s="54"/>
+      <c r="AP71" s="54"/>
+    </row>
+    <row r="72" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="54"/>
+      <c r="B72" s="25"/>
       <c r="C72" s="3"/>
       <c r="D72" s="4"/>
       <c r="E72" s="5"/>
@@ -3972,43 +3968,24 @@
       <c r="AL72" s="8"/>
       <c r="AM72" s="8"/>
       <c r="AN72" s="8"/>
-    </row>
-    <row r="73" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D73" s="4" t="n">
-        <v>126</v>
-      </c>
+      <c r="AO72" s="54"/>
+      <c r="AP72" s="54"/>
+    </row>
+    <row r="73" s="46" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="54"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="4"/>
       <c r="E73" s="5"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="7" t="n">
-        <v>126</v>
-      </c>
-      <c r="H73" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="I73" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="J73" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="K73" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="L73" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="M73" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="N73" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
       <c r="O73" s="8"/>
       <c r="P73" s="8"/>
       <c r="Q73" s="8"/>
@@ -4035,41 +4012,23 @@
       <c r="AL73" s="8"/>
       <c r="AM73" s="8"/>
       <c r="AN73" s="8"/>
+      <c r="AO73" s="54"/>
+      <c r="AP73" s="54"/>
     </row>
     <row r="74" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B74" s="67"/>
-      <c r="C74" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D74" s="4" t="n">
-        <v>123</v>
-      </c>
+      <c r="B74" s="25"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="4"/>
       <c r="E74" s="5"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="7" t="n">
-        <v>123</v>
-      </c>
-      <c r="H74" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="I74" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="J74" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="K74" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L74" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M74" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="N74" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
       <c r="O74" s="8"/>
       <c r="P74" s="8"/>
       <c r="Q74" s="8"/>
@@ -4098,100 +4057,63 @@
       <c r="AN74" s="8"/>
     </row>
     <row r="75" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="67"/>
-      <c r="C75" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D75" s="4" t="n">
-        <v>121</v>
-      </c>
-      <c r="E75" s="5"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="7" t="n">
-        <v>121</v>
-      </c>
-      <c r="H75" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J75" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K75" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L75" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M75" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="N75" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
-      <c r="U75" s="8"/>
-      <c r="V75" s="8"/>
-      <c r="W75" s="8"/>
-      <c r="X75" s="8"/>
-      <c r="Y75" s="8"/>
-      <c r="Z75" s="8"/>
-      <c r="AA75" s="8"/>
-      <c r="AB75" s="8"/>
-      <c r="AC75" s="8"/>
-      <c r="AD75" s="8"/>
-      <c r="AE75" s="8"/>
-      <c r="AF75" s="8"/>
-      <c r="AG75" s="8"/>
-      <c r="AH75" s="8"/>
-      <c r="AI75" s="8"/>
-      <c r="AJ75" s="8"/>
-      <c r="AK75" s="8"/>
-      <c r="AL75" s="8"/>
-      <c r="AM75" s="8"/>
-      <c r="AN75" s="8"/>
+      <c r="A75" s="46"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="52"/>
+      <c r="I75" s="53"/>
+      <c r="J75" s="52"/>
+      <c r="K75" s="52"/>
+      <c r="L75" s="52"/>
+      <c r="M75" s="52"/>
+      <c r="N75" s="52"/>
+      <c r="O75" s="52"/>
+      <c r="P75" s="52"/>
+      <c r="Q75" s="52"/>
+      <c r="R75" s="52"/>
+      <c r="S75" s="52"/>
+      <c r="T75" s="52"/>
+      <c r="U75" s="52"/>
+      <c r="V75" s="52"/>
+      <c r="W75" s="52"/>
+      <c r="X75" s="52"/>
+      <c r="Y75" s="52"/>
+      <c r="Z75" s="52"/>
+      <c r="AA75" s="52"/>
+      <c r="AB75" s="52"/>
+      <c r="AC75" s="52"/>
+      <c r="AD75" s="52"/>
+      <c r="AE75" s="52"/>
+      <c r="AF75" s="52"/>
+      <c r="AG75" s="52"/>
+      <c r="AH75" s="52"/>
+      <c r="AI75" s="52"/>
+      <c r="AJ75" s="52"/>
+      <c r="AK75" s="52"/>
+      <c r="AL75" s="52"/>
+      <c r="AM75" s="52"/>
+      <c r="AN75" s="52"/>
+      <c r="AO75" s="46"/>
+      <c r="AP75" s="46"/>
     </row>
     <row r="76" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B76" s="67"/>
-      <c r="C76" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D76" s="4" t="n">
-        <v>120</v>
-      </c>
+      <c r="B76" s="25"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="4"/>
       <c r="E76" s="5"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="7" t="n">
-        <v>120</v>
-      </c>
-      <c r="H76" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="I76" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J76" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K76" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L76" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M76" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="N76" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="G76" s="7"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
       <c r="O76" s="8"/>
       <c r="P76" s="8"/>
       <c r="Q76" s="8"/>
@@ -4220,17 +4142,35 @@
       <c r="AN76" s="8"/>
     </row>
     <row r="77" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B77" s="25"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="4"/>
+      <c r="B77" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E77" s="5"/>
       <c r="F77" s="6"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
+      <c r="G77" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="H77" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="J77" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="M77" s="8"/>
       <c r="N77" s="8"/>
       <c r="O77" s="8"/>
@@ -4261,41 +4201,19 @@
       <c r="AN77" s="8"/>
     </row>
     <row r="78" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B78" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B78" s="68"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="4"/>
       <c r="E78" s="5"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="7" t="n">
-        <v>201</v>
-      </c>
-      <c r="H78" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="I78" s="9" t="n">
-        <v>201</v>
-      </c>
-      <c r="J78" s="8" t="n">
-        <v>201</v>
-      </c>
-      <c r="K78" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="L78" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="M78" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="N78" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="G78" s="7"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
       <c r="O78" s="8"/>
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
@@ -4324,19 +4242,41 @@
       <c r="AN78" s="8"/>
     </row>
     <row r="79" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B79" s="25"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="4"/>
+      <c r="B79" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D79" s="4" t="n">
+        <v>126</v>
+      </c>
       <c r="E79" s="5"/>
       <c r="F79" s="6"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
+      <c r="G79" s="7" t="n">
+        <v>126</v>
+      </c>
+      <c r="H79" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="K79" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="M79" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="N79" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="O79" s="8"/>
       <c r="P79" s="8"/>
       <c r="Q79" s="8"/>
@@ -4365,37 +4305,39 @@
       <c r="AN79" s="8"/>
     </row>
     <row r="80" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B80" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C80" s="68" t="s">
-        <v>214</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>17</v>
+      <c r="B80" s="68"/>
+      <c r="C80" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D80" s="4" t="n">
+        <v>123</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="6"/>
       <c r="G80" s="7" t="n">
-        <v>202</v>
+        <v>123</v>
       </c>
       <c r="H80" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I80" s="9" t="n">
-        <v>202</v>
-      </c>
-      <c r="J80" s="8" t="n">
-        <v>202</v>
-      </c>
-      <c r="K80" s="8" t="n">
         <v>5</v>
       </c>
+      <c r="I80" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="J80" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="K80" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="L80" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N80" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
       <c r="O80" s="8"/>
       <c r="P80" s="8"/>
       <c r="Q80" s="8"/>
@@ -4424,19 +4366,39 @@
       <c r="AN80" s="8"/>
     </row>
     <row r="81" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B81" s="25"/>
-      <c r="C81" s="68"/>
-      <c r="D81" s="4"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D81" s="4" t="n">
+        <v>121</v>
+      </c>
       <c r="E81" s="5"/>
       <c r="F81" s="6"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
+      <c r="G81" s="7" t="n">
+        <v>121</v>
+      </c>
+      <c r="H81" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="N81" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="O81" s="8"/>
       <c r="P81" s="8"/>
       <c r="Q81" s="8"/>
@@ -4465,47 +4427,41 @@
       <c r="AN81" s="8"/>
     </row>
     <row r="82" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B82" s="25" t="s">
-        <v>215</v>
-      </c>
+      <c r="B82" s="68"/>
       <c r="C82" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D82" s="69" t="n">
-        <v>126</v>
+        <v>207</v>
+      </c>
+      <c r="D82" s="4" t="n">
+        <v>120</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="6"/>
       <c r="G82" s="7" t="n">
-        <v>203</v>
+        <v>120</v>
       </c>
       <c r="H82" s="8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="J82" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="K82" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="L82" s="8" t="n">
-        <v>126</v>
-      </c>
-      <c r="M82" s="8" t="s">
-        <v>220</v>
+        <v>57</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K82" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L82" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M82" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="O82" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="P82" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
       <c r="Q82" s="8"/>
       <c r="R82" s="8"/>
       <c r="S82" s="8"/>
@@ -4533,44 +4489,20 @@
     </row>
     <row r="83" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="25"/>
-      <c r="C83" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D83" s="69" t="n">
-        <v>123</v>
-      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="4"/>
       <c r="E83" s="5"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="7" t="n">
-        <v>203</v>
-      </c>
-      <c r="H83" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="J83" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="K83" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="L83" s="8" t="n">
-        <v>123</v>
-      </c>
-      <c r="M83" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="N83" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="O83" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="P83" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="G83" s="7"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="8"/>
+      <c r="P83" s="8"/>
       <c r="Q83" s="8"/>
       <c r="R83" s="8"/>
       <c r="S83" s="8"/>
@@ -4597,45 +4529,43 @@
       <c r="AN83" s="8"/>
     </row>
     <row r="84" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B84" s="25"/>
+      <c r="B84" s="25" t="s">
+        <v>208</v>
+      </c>
       <c r="C84" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D84" s="69" t="n">
-        <v>121</v>
+        <v>209</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="6"/>
       <c r="G84" s="7" t="n">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H84" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="I84" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="J84" s="8" t="s">
-        <v>218</v>
+        <v>5</v>
+      </c>
+      <c r="I84" s="9" t="n">
+        <v>201</v>
+      </c>
+      <c r="J84" s="8" t="n">
+        <v>201</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="L84" s="8" t="n">
-        <v>121</v>
+        <v>210</v>
+      </c>
+      <c r="L84" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="M84" s="8" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="N84" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="O84" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="P84" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
       <c r="Q84" s="8"/>
       <c r="R84" s="8"/>
       <c r="S84" s="8"/>
@@ -4661,45 +4591,22 @@
       <c r="AM84" s="8"/>
       <c r="AN84" s="8"/>
     </row>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="54"/>
+    <row r="85" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="25"/>
-      <c r="C85" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D85" s="69" t="n">
-        <v>120</v>
-      </c>
-      <c r="G85" s="7" t="n">
-        <v>203</v>
-      </c>
-      <c r="H85" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="I85" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="J85" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="K85" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="L85" s="8" t="n">
-        <v>120</v>
-      </c>
-      <c r="M85" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="N85" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="O85" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="P85" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
       <c r="Q85" s="8"/>
       <c r="R85" s="8"/>
       <c r="S85" s="8"/>
@@ -4724,16 +4631,37 @@
       <c r="AL85" s="8"/>
       <c r="AM85" s="8"/>
       <c r="AN85" s="8"/>
-      <c r="AO85" s="54"/>
-      <c r="AP85" s="54"/>
-    </row>
-    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="54"/>
-      <c r="B86" s="25"/>
-      <c r="D86" s="69"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
+    </row>
+    <row r="86" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B86" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C86" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="5"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="7" t="n">
+        <v>202</v>
+      </c>
+      <c r="H86" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I86" s="9" t="n">
+        <v>202</v>
+      </c>
+      <c r="J86" s="8" t="n">
+        <v>202</v>
+      </c>
+      <c r="K86" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="L86" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
@@ -4762,100 +4690,437 @@
       <c r="AL86" s="8"/>
       <c r="AM86" s="8"/>
       <c r="AN86" s="8"/>
-      <c r="AO86" s="54"/>
-      <c r="AP86" s="54"/>
-    </row>
-    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C88" s="70" t="s">
+    </row>
+    <row r="87" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B87" s="25"/>
+      <c r="C87" s="69"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
+      <c r="Q87" s="8"/>
+      <c r="R87" s="8"/>
+      <c r="S87" s="8"/>
+      <c r="T87" s="8"/>
+      <c r="U87" s="8"/>
+      <c r="V87" s="8"/>
+      <c r="W87" s="8"/>
+      <c r="X87" s="8"/>
+      <c r="Y87" s="8"/>
+      <c r="Z87" s="8"/>
+      <c r="AA87" s="8"/>
+      <c r="AB87" s="8"/>
+      <c r="AC87" s="8"/>
+      <c r="AD87" s="8"/>
+      <c r="AE87" s="8"/>
+      <c r="AF87" s="8"/>
+      <c r="AG87" s="8"/>
+      <c r="AH87" s="8"/>
+      <c r="AI87" s="8"/>
+      <c r="AJ87" s="8"/>
+      <c r="AK87" s="8"/>
+      <c r="AL87" s="8"/>
+      <c r="AM87" s="8"/>
+      <c r="AN87" s="8"/>
+    </row>
+    <row r="88" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B88" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D88" s="70" t="n">
+        <v>126</v>
+      </c>
+      <c r="E88" s="5"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="7" t="n">
+        <v>203</v>
+      </c>
+      <c r="H88" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="J88" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="K88" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="L88" s="8" t="n">
+        <v>126</v>
+      </c>
+      <c r="M88" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="N88" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="O88" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="P88" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q88" s="8"/>
+      <c r="R88" s="8"/>
+      <c r="S88" s="8"/>
+      <c r="T88" s="8"/>
+      <c r="U88" s="8"/>
+      <c r="V88" s="8"/>
+      <c r="W88" s="8"/>
+      <c r="X88" s="8"/>
+      <c r="Y88" s="8"/>
+      <c r="Z88" s="8"/>
+      <c r="AA88" s="8"/>
+      <c r="AB88" s="8"/>
+      <c r="AC88" s="8"/>
+      <c r="AD88" s="8"/>
+      <c r="AE88" s="8"/>
+      <c r="AF88" s="8"/>
+      <c r="AG88" s="8"/>
+      <c r="AH88" s="8"/>
+      <c r="AI88" s="8"/>
+      <c r="AJ88" s="8"/>
+      <c r="AK88" s="8"/>
+      <c r="AL88" s="8"/>
+      <c r="AM88" s="8"/>
+      <c r="AN88" s="8"/>
+    </row>
+    <row r="89" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B89" s="25"/>
+      <c r="C89" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D89" s="70" t="n">
+        <v>123</v>
+      </c>
+      <c r="E89" s="5"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="7" t="n">
+        <v>203</v>
+      </c>
+      <c r="H89" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="K89" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="L89" s="8" t="n">
+        <v>123</v>
+      </c>
+      <c r="M89" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="N89" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="O89" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="P89" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q89" s="8"/>
+      <c r="R89" s="8"/>
+      <c r="S89" s="8"/>
+      <c r="T89" s="8"/>
+      <c r="U89" s="8"/>
+      <c r="V89" s="8"/>
+      <c r="W89" s="8"/>
+      <c r="X89" s="8"/>
+      <c r="Y89" s="8"/>
+      <c r="Z89" s="8"/>
+      <c r="AA89" s="8"/>
+      <c r="AB89" s="8"/>
+      <c r="AC89" s="8"/>
+      <c r="AD89" s="8"/>
+      <c r="AE89" s="8"/>
+      <c r="AF89" s="8"/>
+      <c r="AG89" s="8"/>
+      <c r="AH89" s="8"/>
+      <c r="AI89" s="8"/>
+      <c r="AJ89" s="8"/>
+      <c r="AK89" s="8"/>
+      <c r="AL89" s="8"/>
+      <c r="AM89" s="8"/>
+      <c r="AN89" s="8"/>
+    </row>
+    <row r="90" s="54" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B90" s="25"/>
+      <c r="C90" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D90" s="70" t="n">
+        <v>121</v>
+      </c>
+      <c r="E90" s="5"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="7" t="n">
+        <v>203</v>
+      </c>
+      <c r="H90" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="J90" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="K90" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="L90" s="8" t="n">
+        <v>121</v>
+      </c>
+      <c r="M90" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="N90" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="O90" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="P90" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q90" s="8"/>
+      <c r="R90" s="8"/>
+      <c r="S90" s="8"/>
+      <c r="T90" s="8"/>
+      <c r="U90" s="8"/>
+      <c r="V90" s="8"/>
+      <c r="W90" s="8"/>
+      <c r="X90" s="8"/>
+      <c r="Y90" s="8"/>
+      <c r="Z90" s="8"/>
+      <c r="AA90" s="8"/>
+      <c r="AB90" s="8"/>
+      <c r="AC90" s="8"/>
+      <c r="AD90" s="8"/>
+      <c r="AE90" s="8"/>
+      <c r="AF90" s="8"/>
+      <c r="AG90" s="8"/>
+      <c r="AH90" s="8"/>
+      <c r="AI90" s="8"/>
+      <c r="AJ90" s="8"/>
+      <c r="AK90" s="8"/>
+      <c r="AL90" s="8"/>
+      <c r="AM90" s="8"/>
+      <c r="AN90" s="8"/>
+    </row>
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="54"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D91" s="70" t="n">
+        <v>120</v>
+      </c>
+      <c r="G91" s="7" t="n">
+        <v>203</v>
+      </c>
+      <c r="H91" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="K91" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="L91" s="8" t="n">
+        <v>120</v>
+      </c>
+      <c r="M91" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="N91" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="O91" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="P91" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q91" s="8"/>
+      <c r="R91" s="8"/>
+      <c r="S91" s="8"/>
+      <c r="T91" s="8"/>
+      <c r="U91" s="8"/>
+      <c r="V91" s="8"/>
+      <c r="W91" s="8"/>
+      <c r="X91" s="8"/>
+      <c r="Y91" s="8"/>
+      <c r="Z91" s="8"/>
+      <c r="AA91" s="8"/>
+      <c r="AB91" s="8"/>
+      <c r="AC91" s="8"/>
+      <c r="AD91" s="8"/>
+      <c r="AE91" s="8"/>
+      <c r="AF91" s="8"/>
+      <c r="AG91" s="8"/>
+      <c r="AH91" s="8"/>
+      <c r="AI91" s="8"/>
+      <c r="AJ91" s="8"/>
+      <c r="AK91" s="8"/>
+      <c r="AL91" s="8"/>
+      <c r="AM91" s="8"/>
+      <c r="AN91" s="8"/>
+      <c r="AO91" s="54"/>
+      <c r="AP91" s="54"/>
+    </row>
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="54"/>
+      <c r="B92" s="25"/>
+      <c r="D92" s="70"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="8"/>
+      <c r="P92" s="8"/>
+      <c r="Q92" s="8"/>
+      <c r="R92" s="8"/>
+      <c r="S92" s="8"/>
+      <c r="T92" s="8"/>
+      <c r="U92" s="8"/>
+      <c r="V92" s="8"/>
+      <c r="W92" s="8"/>
+      <c r="X92" s="8"/>
+      <c r="Y92" s="8"/>
+      <c r="Z92" s="8"/>
+      <c r="AA92" s="8"/>
+      <c r="AB92" s="8"/>
+      <c r="AC92" s="8"/>
+      <c r="AD92" s="8"/>
+      <c r="AE92" s="8"/>
+      <c r="AF92" s="8"/>
+      <c r="AG92" s="8"/>
+      <c r="AH92" s="8"/>
+      <c r="AI92" s="8"/>
+      <c r="AJ92" s="8"/>
+      <c r="AK92" s="8"/>
+      <c r="AL92" s="8"/>
+      <c r="AM92" s="8"/>
+      <c r="AN92" s="8"/>
+      <c r="AO92" s="54"/>
+      <c r="AP92" s="54"/>
+    </row>
+    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C94" s="71" t="s">
+        <v>225</v>
+      </c>
+      <c r="D94" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="D88" s="71" t="s">
+      <c r="E94" s="73"/>
+      <c r="F94" s="74" t="s">
         <v>227</v>
       </c>
-      <c r="E88" s="72"/>
-      <c r="F88" s="73" t="s">
+      <c r="G94" s="51"/>
+    </row>
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="76" t="s">
         <v>228</v>
       </c>
-      <c r="G88" s="51"/>
-    </row>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" s="75" t="s">
+      <c r="D95" s="4" t="n">
+        <v>254</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95" s="6" t="n">
+        <v>253</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="75"/>
+      <c r="C96" s="76"/>
+    </row>
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="C97" s="76" t="s">
         <v>229</v>
       </c>
-      <c r="D89" s="4" t="n">
-        <v>254</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F89" s="6" t="n">
-        <v>253</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="74"/>
-      <c r="C90" s="75"/>
-    </row>
-    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="C91" s="75" t="s">
+      <c r="D97" s="4" t="n">
+        <v>239</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F97" s="6" t="n">
+        <v>237</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="75"/>
+      <c r="C98" s="76"/>
+    </row>
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="C99" s="76" t="s">
         <v>230</v>
       </c>
-      <c r="D91" s="4" t="n">
-        <v>239</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F91" s="6" t="n">
-        <v>237</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="74"/>
-      <c r="C92" s="75"/>
-    </row>
-    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="74" t="s">
-        <v>117</v>
-      </c>
-      <c r="C93" s="75" t="s">
+      <c r="F99" s="6" t="n">
+        <v>211</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="75"/>
+      <c r="C100" s="76"/>
+    </row>
+    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="C101" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="F93" s="6" t="n">
-        <v>211</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="74"/>
-      <c r="C94" s="75"/>
-    </row>
-    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="74" t="s">
-        <v>127</v>
-      </c>
-      <c r="C95" s="75" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="I3:J3"/>
